--- a/src/main/resources/template/excel/export/CashFlowReport.xlsx
+++ b/src/main/resources/template/excel/export/CashFlowReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView windowWidth="21330" windowHeight="4845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>zhangq</author>
     <author>作者</author>
   </authors>
   <commentList>
@@ -28,20 +29,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">YSCGD:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:area(lastCell="O2")</t>
+          <t>jx:area(lastCell="L3")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0">
+    <comment ref="A3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -49,16 +41,8 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">YSCGD:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="O2")</t>
+          <t>YSCGD:
+jx:each(items="reportList" var="obj" lastCell="L3")</t>
         </r>
       </text>
     </comment>
@@ -67,7 +51,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+  <si>
+    <t>收银流水</t>
+  </si>
   <si>
     <t>店铺编号</t>
   </si>
@@ -138,33 +125,7 @@
     <t>${obj.orderType}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{obj.remark</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
+    <t>${obj.remark}</t>
   </si>
 </sst>
 </file>
@@ -172,13 +133,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,10 +148,144 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,133 +306,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,192 +321,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -540,36 +521,46 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -590,40 +581,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -637,16 +604,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,140 +651,149 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1133,100 +1138,118 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="3" width="16" customWidth="1"/>
-    <col min="4" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="7" width="20.375" customWidth="1"/>
-    <col min="8" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="10" width="22.625" customWidth="1"/>
-    <col min="11" max="12" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="18.625" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.75" customHeight="1" spans="1:12">
+    <row r="1" ht="30" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:12">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" ht="16.5" customHeight="1" spans="1:12">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="I3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="K3" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/src/main/resources/template/excel/export/CashFlowReport.xlsx
+++ b/src/main/resources/template/excel/export/CashFlowReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,9 +31,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="L4")</t>
+          <t>jx:area(lastCell="L3")</t>
         </r>
       </text>
     </comment>
@@ -43,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>收银流水</t>
   </si>
@@ -130,26 +132,14 @@
   </si>
   <si>
     <t>${obj.remark}</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(E3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(G3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="179" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -164,6 +154,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -171,22 +162,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -232,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,83 +237,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -338,7 +262,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -373,7 +297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,7 +332,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -617,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -725,26 +649,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>

--- a/src/main/resources/template/excel/export/CashFlowReport.xlsx
+++ b/src/main/resources/template/excel/export/CashFlowReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="L3")</t>
+          <t>jx:area(lastCell="N3")</t>
         </r>
       </text>
     </comment>
@@ -48,7 +48,7 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:each(items="reportList" var="obj" lastCell="L3")</t>
+jx:each(items="reportList" var="obj" lastCell="N3")</t>
         </r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>收银流水</t>
   </si>
@@ -113,9 +113,6 @@
     <t>${obj.saleAmount}</t>
   </si>
   <si>
-    <t>${obj.businessType}</t>
-  </si>
-  <si>
     <t>${obj.payAmount}</t>
   </si>
   <si>
@@ -128,10 +125,30 @@
     <t>${obj.returnOrderNo}</t>
   </si>
   <si>
-    <t>${obj.orderType}</t>
-  </si>
-  <si>
     <t>${obj.remark}</t>
+  </si>
+  <si>
+    <t>${obj.orderTypeStr}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小票号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.ticketNo}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售方式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.orderWayStr}</t>
+  </si>
+  <si>
+    <t>${obj.businessTypeStr}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -541,23 +558,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="4" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
     <col min="5" max="9" width="12.625" customWidth="1"/>
     <col min="10" max="10" width="18.625" customWidth="1"/>
     <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="24.625" customWidth="1"/>
+    <col min="12" max="12" width="22.75" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -572,8 +593,10 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -608,10 +631,16 @@
         <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -628,30 +657,36 @@
         <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/CashFlowReport.xlsx
+++ b/src/main/resources/template/excel/export/CashFlowReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -155,8 +155,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -244,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,6 +255,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -561,7 +563,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -653,13 +655,13 @@
       <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -690,7 +692,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>